--- a/biology/Zoologie/Agrias_claudina/Agrias_claudina.xlsx
+++ b/biology/Zoologie/Agrias_claudina/Agrias_claudina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrias claudina est une espèce d'insectes lépidoptères de la famille des Nymphalidae et de la sous-famille des Charaxinae, tribu des Preponini, et du genre Agrias. C'est l'espèce type pour le genre.
 </t>
@@ -511,22 +523,94 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias claudina a été décrit par l'entomologiste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis claudina[1].
-Noms vernaculaires
-Agrias claudina se nomme Claudina Agrias en anglais.
-Taxinomie
-Le grand polymorphisme de cette espèce lui vaut une grande quantité de sous-espèces et surtout une riche synonymie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias claudina a été décrit par l'entomologiste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis claudina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias claudina se nomme Claudina Agrias en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand polymorphisme de cette espèce lui vaut une grande quantité de sous-espèces et surtout une riche synonymie.
 Sous-espèces
 Agrias claudina claudina; présent au Venezuela, au Brésil, en Guyana et en Guyane.
 Synonymie pour cette sous-espèce
-Papilio claudia (Schulze, 1776) [2]
-Agrias sahlkei (Honrath, 1885) [3]
-Agrias claudia amazonica (Staudinger, 1899)[4]
+Papilio claudia (Schulze, 1776) 
+Agrias sahlkei (Honrath, 1885) 
+Agrias claudia amazonica (Staudinger, 1899)
 Agrias claudia festa (Fruhstorfer, 1902)
-Agrias claudia vesta (Fruhstorfer, 1902)[5]
-Agrias claudia infernalis (Fruhstorfer, 1902)[6]
+Agrias claudia vesta (Fruhstorfer, 1902)
+Agrias claudia infernalis (Fruhstorfer, 1902)
 Agrias claudia imperialis (Lathy, 1921)
 Agrias claudia nigropunctata (Lathy, 1921)
 Agrias claudia bipullata(Lathy, 1921)
@@ -611,12 +695,12 @@
 Agrias sardanapalus claudia lecerfi melior (Rebillard, 1961)
 Agrias claudia subsahlkei flavosuffusa (Barselou, 1983)
 Agrias claudia subsahlkei carola (Barselou, 1983)
-Agrias sahlkei sahlkei (Späth, 1999) [7]
+Agrias sahlkei sahlkei (Späth, 1999) 
 Agrias sahlkei ninus (Späth, 1999)
 Agrias claudina annetta (Gray, 1832); présent au Brésil
 Synonymie pour cette sous-espèce
 Nymphalis claudina annetta (Gray, 1832)
-Agrias claudianus (Staudinger, 1885)[8]
+Agrias claudianus (Staudinger, 1885)
 Agrias claudia pallantis (Fruhstorfer, 1914)
 Agrias claudia plausibilis (Fruhstorfer, 1916)
 Agrias claudia claudianus cassandra (Röber, 1925)
@@ -624,7 +708,7 @@
 Agrias claudia claudianus reliquus (Biedermann, 1926)
 Agrias claudia claudianus margaritifera (Biedermann, 1926)
 Agrias claudina claudianus (Späth, 1999)
-Agrias claudina croesus Staudinger, 1896; présent au Brésil[9]
+Agrias claudina croesus Staudinger, 1896; présent au Brésil
 Synonymie pour cette sous-espèce
 Agrias claudia godmanides (Fassl, 1921)
 Agrias claudia michaeli (Fassl, 1921)
@@ -653,7 +737,7 @@
 Agrias claudina delavillae Neild, 1996; présent au Venezuela
 Agrias claudina godmani Fruhstorfer, 1895; présent  en Bolivie et au Brésil
 Synonymie pour cette sous-espèce
-Agrias godmani (Fruhstorfer, 1895)[10]
+Agrias godmani (Fruhstorfer, 1895)
 Agrias godmani phoenix (Niepelt, 1910)
 Agrias godmani semirubra (Niepelt, 1910)
 Agrias godmani cyanecula (Fruhstorfer, 1910)
@@ -668,8 +752,8 @@
 Synonymie pour cette sous-espèce
 Agrias sardanapalus bolivianus (Staudinger, 1899)
 Agrias sardanapalus hades (Lathy, 1900)
-Agrias claudia lugina (Fruhstorfer, 1902)[6]
-Agrias sardanapalus intermedius (Fassl, 191)[11]
+Agrias claudia lugina (Fruhstorfer, 1902)
+Agrias sardanapalus intermedius (Fassl, 191)
 Agrias claudia maxentia (Fruhstorfer, 1912)
 Agrias sardanapalus decyanea (Niepelt, 1913)
 Agrias sardanapalus sardanapaloides (Fassl, 1913)
@@ -681,9 +765,9 @@
 Agrias claudina inermedius (Späth, 1999)
 Agrias claudina lugina (Späth, 1999)
 Agrias claudina patriciae Attal, 2000; présent au Venezuela
-Agrias claudina sardanapalus Bates, 1860; présent au Venezuela, en Équateur, en Colombie, au Pérou et au Brésil[12].
+Agrias claudina sardanapalus Bates, 1860; présent au Venezuela, en Équateur, en Colombie, au Pérou et au Brésil.
 Synonymie pour cette sous-espèce
-Agrias claudia sara (Fruhstorfer, 1902)[6]
+Agrias claudia sara (Fruhstorfer, 1902)
 Agrias claudia sardanapalus purpurea (Fassl, 1924)
 Agrias claudia sardanapalus rubrimediana (Fassl, 1924)
 Agrias claudia sardanapalus brunhilda (Fassl, 1924)
@@ -715,65 +799,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Agrias_claudina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias claudina est un papillon d'une envergure d'environ 69 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe légèrement festonné[13]. 
-La face supérieure est noire avec de grandes taches basodiscales rouge marquée aux ailes antérieures par une échancrure.Cet aspect est très variable ce qui explique le nombre de formes décrites, en particulier présence ou non aux ailes postérieures d'une flaque bleue entre n2 et n6.
-Le revers des ailes antérieures est marron avec une grande tache basodiscale jaune orangé et le revers des ailes postérieures est vert jaune  orné de lignes sinueuses noires et d'une ligne submarginale de gros ocelles noirs pupillés de bleu[14]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agrias_claudina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -795,16 +820,151 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias claudina est un papillon d'une envergure d'environ 69 mm, aux ailes antérieures à bord costal bossu, bord externe concave et aux ailes postérieures à bord externe légèrement festonné. 
+La face supérieure est noire avec de grandes taches basodiscales rouge marquée aux ailes antérieures par une échancrure.Cet aspect est très variable ce qui explique le nombre de formes décrites, en particulier présence ou non aux ailes postérieures d'une flaque bleue entre n2 et n6.
+Le revers des ailes antérieures est marron avec une grande tache basodiscale jaune orangé et le revers des ailes postérieures est vert jaune  orné de lignes sinueuses noires et d'une ligne submarginale de gros ocelles noirs pupillés de bleu
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Agrias claudina est présent au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou, au Brésil, en Guyana et en Guyane[12].
-Biotope
-Agrias claudina réside dans la canopée[15],[14].
-Protection
-Agrias claudina est inscrit VU (vulnérable) sur le Red data Book du Brésil pour le Mato-Grosso[16].  
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias claudina est présent au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou, au Brésil, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias claudina réside dans la canopée,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrias_claudina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agrias claudina est inscrit VU (vulnérable) sur le Red data Book du Brésil pour le Mato-Grosso.  
 </t>
         </is>
       </c>
